--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -40,10 +40,10 @@
     <t>Саратов Восток</t>
   </si>
   <si>
+    <t>Пенза</t>
+  </si>
+  <si>
     <t>Саратов Запад</t>
-  </si>
-  <si>
-    <t>Пенза</t>
   </si>
   <si>
     <t>Самара Запад</t>
@@ -444,7 +444,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -453,10 +453,10 @@
         <v>411</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,19 +464,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -484,19 +484,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -504,19 +504,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -524,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -544,19 +544,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -22,10 +22,10 @@
     <t>Всего заявок</t>
   </si>
   <si>
-    <t>Заявок ВМС</t>
-  </si>
-  <si>
-    <t>Задач ГК</t>
+    <t>ВМС</t>
+  </si>
+  <si>
+    <t>Задача ГК</t>
   </si>
   <si>
     <t>ТОИР</t>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>0</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -444,7 +444,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -453,10 +453,10 @@
         <v>411</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,7 +464,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -473,10 +473,10 @@
         <v>85</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -584,7 +584,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -453,7 +453,7 @@
         <v>411</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="F2">
         <v>16</v>
@@ -473,7 +473,7 @@
         <v>85</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -493,7 +493,7 @@
         <v>87</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -513,7 +513,7 @@
         <v>88</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -573,7 +573,7 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>1</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Филиал</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>ТОИР</t>
+  </si>
+  <si>
+    <t>BMC</t>
   </si>
   <si>
     <t>Просрочено</t>
@@ -413,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,10 +441,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>523</v>
@@ -453,15 +459,18 @@
         <v>411</v>
       </c>
       <c r="E2">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>87</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>156</v>
@@ -473,15 +482,18 @@
         <v>85</v>
       </c>
       <c r="E3">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="F3">
+        <v>66</v>
+      </c>
+      <c r="G3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>135</v>
@@ -493,15 +505,18 @@
         <v>87</v>
       </c>
       <c r="E4">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>133</v>
@@ -513,15 +528,18 @@
         <v>88</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>45</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>83</v>
@@ -533,15 +551,18 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>34</v>
@@ -553,15 +574,18 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -573,15 +597,18 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -593,9 +620,12 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
     </row>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Филиал</t>
   </si>
@@ -22,16 +22,13 @@
     <t>Всего заявок</t>
   </si>
   <si>
-    <t>ВМС</t>
+    <t>BMC</t>
   </si>
   <si>
     <t>Задача ГК</t>
   </si>
   <si>
     <t>ТОИР</t>
-  </si>
-  <si>
-    <t>BMC</t>
   </si>
   <si>
     <t>Просрочено</t>
@@ -416,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,19 +438,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2">
         <v>523</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>411</v>
@@ -462,21 +456,18 @@
         <v>25</v>
       </c>
       <c r="F2">
-        <v>87</v>
-      </c>
-      <c r="G2">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>156</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>85</v>
@@ -485,21 +476,18 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>66</v>
-      </c>
-      <c r="G3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>135</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>87</v>
@@ -508,21 +496,18 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>38</v>
-      </c>
-      <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>133</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>88</v>
@@ -531,21 +516,18 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>45</v>
-      </c>
-      <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>83</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>14</v>
@@ -554,21 +536,18 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>67</v>
-      </c>
-      <c r="G6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>34</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -577,21 +556,18 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>30</v>
-      </c>
-      <c r="G7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>19</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -600,21 +576,18 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>11</v>
-      </c>
-      <c r="G8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -623,9 +596,6 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
         <v>1</v>
       </c>
     </row>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -22,7 +22,7 @@
     <t>Всего заявок</t>
   </si>
   <si>
-    <t>BMC</t>
+    <t>ВМС</t>
   </si>
   <si>
     <t>Задача ГК</t>
@@ -447,7 +447,7 @@
         <v>523</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>411</v>
@@ -467,7 +467,7 @@
         <v>156</v>
       </c>
       <c r="C3">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>85</v>
@@ -487,7 +487,7 @@
         <v>135</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>87</v>
@@ -507,7 +507,7 @@
         <v>133</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>88</v>
@@ -527,7 +527,7 @@
         <v>83</v>
       </c>
       <c r="C6">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>14</v>
@@ -547,7 +547,7 @@
         <v>34</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -567,7 +567,7 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Филиал</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>ТОИР</t>
+  </si>
+  <si>
+    <t>BMC</t>
   </si>
   <si>
     <t>Просрочено</t>
@@ -413,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,10 +441,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>523</v>
@@ -456,12 +462,15 @@
         <v>25</v>
       </c>
       <c r="F2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>87</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>156</v>
@@ -476,12 +485,15 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>135</v>
@@ -496,12 +508,15 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>133</v>
@@ -516,12 +531,15 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>83</v>
@@ -536,12 +554,15 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>34</v>
@@ -556,12 +577,15 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -576,12 +600,15 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -596,7 +623,10 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Филиал</t>
   </si>
@@ -22,16 +22,13 @@
     <t>Всего заявок</t>
   </si>
   <si>
-    <t>ВМС</t>
-  </si>
-  <si>
     <t>Задача ГК</t>
   </si>
   <si>
+    <t>BMC</t>
+  </si>
+  <si>
     <t>ТОИР</t>
-  </si>
-  <si>
-    <t>BMC</t>
   </si>
   <si>
     <t>Просрочено</t>
@@ -416,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,174 +438,150 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2">
         <v>523</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="D2">
-        <v>411</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>25</v>
       </c>
       <c r="F2">
-        <v>87</v>
-      </c>
-      <c r="G2">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>156</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D3">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3">
-        <v>66</v>
-      </c>
-      <c r="G3">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>135</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D4">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4">
-        <v>38</v>
-      </c>
-      <c r="G4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>133</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>45</v>
-      </c>
-      <c r="G5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>83</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>67</v>
-      </c>
-      <c r="G6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>34</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>30</v>
-      </c>
-      <c r="G7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>19</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>11</v>
-      </c>
-      <c r="G8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -617,15 +590,12 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
         <v>4</v>
       </c>
     </row>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Филиал</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Просрочено</t>
   </si>
   <si>
+    <t>SLA</t>
+  </si>
+  <si>
     <t>Пятигорск</t>
   </si>
   <si>
@@ -56,6 +59,21 @@
   </si>
   <si>
     <t>Волгоград Восток</t>
+  </si>
+  <si>
+    <t>100,00%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>Н/Д</t>
   </si>
 </sst>
 </file>
@@ -413,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,10 +456,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>523</v>
@@ -456,12 +477,15 @@
         <v>25</v>
       </c>
       <c r="F2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>156</v>
@@ -478,10 +502,13 @@
       <c r="F3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>135</v>
@@ -496,12 +523,15 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>133</v>
@@ -518,10 +548,13 @@
       <c r="F5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>83</v>
@@ -538,10 +571,13 @@
       <c r="F6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>34</v>
@@ -558,10 +594,13 @@
       <c r="F7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -578,10 +617,13 @@
       <c r="F8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -597,6 +639,9 @@
       </c>
       <c r="F9">
         <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Филиал</t>
   </si>
@@ -65,15 +65,6 @@
   </si>
   <si>
     <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>Н/Д</t>
   </si>
 </sst>
 </file>
@@ -503,7 +494,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -549,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -572,7 +563,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -595,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -641,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Филиал</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
 </sst>
 </file>
@@ -468,7 +474,7 @@
         <v>25</v>
       </c>
       <c r="F2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -494,7 +500,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -540,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -563,7 +569,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -586,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Филиал</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Просрочено</t>
+  </si>
+  <si>
+    <t>Без координат</t>
   </si>
   <si>
     <t>SLA</t>
@@ -428,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,10 +459,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>523</v>
@@ -476,13 +482,16 @@
       <c r="F2">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>156</v>
@@ -499,13 +508,16 @@
       <c r="F3">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>135</v>
@@ -522,13 +534,16 @@
       <c r="F4">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>133</v>
@@ -545,13 +560,16 @@
       <c r="F5">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>83</v>
@@ -568,13 +586,16 @@
       <c r="F6">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>34</v>
@@ -591,13 +612,16 @@
       <c r="F7">
         <v>7</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -614,13 +638,16 @@
       <c r="F8">
         <v>7</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>14</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -637,8 +664,11 @@
       <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9" t="s">
-        <v>15</v>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Филиал</t>
   </si>
@@ -34,19 +34,16 @@
     <t>Просрочено</t>
   </si>
   <si>
-    <t>Без координат</t>
-  </si>
-  <si>
     <t>SLA</t>
   </si>
   <si>
     <t>Пятигорск</t>
   </si>
   <si>
+    <t>Пенза</t>
+  </si>
+  <si>
     <t>Саратов Восток</t>
-  </si>
-  <si>
-    <t>Пенза</t>
   </si>
   <si>
     <t>Саратов Запад</t>
@@ -431,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,216 +456,189 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>479</v>
+      </c>
+      <c r="C2">
+        <v>390</v>
+      </c>
+      <c r="D2">
+        <v>68</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>523</v>
-      </c>
-      <c r="C2">
-        <v>411</v>
-      </c>
-      <c r="D2">
-        <v>87</v>
-      </c>
-      <c r="E2">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>36</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B3">
+        <v>138</v>
+      </c>
+      <c r="C3">
+        <v>84</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>156</v>
-      </c>
-      <c r="C3">
+      <c r="B4">
+        <v>136</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>54</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>124</v>
+      </c>
+      <c r="C5">
+        <v>71</v>
+      </c>
+      <c r="D5">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>85</v>
-      </c>
-      <c r="D3">
-        <v>66</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>135</v>
-      </c>
-      <c r="C4">
-        <v>87</v>
-      </c>
-      <c r="D4">
-        <v>38</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>133</v>
-      </c>
-      <c r="C5">
-        <v>88</v>
-      </c>
-      <c r="D5">
-        <v>45</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>83</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>20</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>34</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -64,13 +64,13 @@
     <t>100,00%</t>
   </si>
   <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
 </sst>
 </file>
@@ -462,19 +462,19 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C2">
         <v>390</v>
       </c>
       <c r="D2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -508,13 +508,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C4">
         <v>80</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -577,13 +577,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -623,19 +623,19 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -474,7 +474,7 @@
         <v>22</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -520,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -474,7 +474,7 @@
         <v>22</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -497,7 +497,7 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -40,10 +40,10 @@
     <t>Пятигорск</t>
   </si>
   <si>
+    <t>Саратов Восток</t>
+  </si>
+  <si>
     <t>Пенза</t>
-  </si>
-  <si>
-    <t>Саратов Восток</t>
   </si>
   <si>
     <t>Саратов Запад</t>
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C2">
         <v>390</v>
@@ -471,10 +471,10 @@
         <v>69</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -485,22 +485,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C3">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -508,22 +508,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -531,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C5">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -554,19 +554,19 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
@@ -577,13 +577,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -600,19 +600,19 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
@@ -623,7 +623,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -632,10 +632,10 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Филиал</t>
   </si>
@@ -64,13 +64,10 @@
     <t>100,00%</t>
   </si>
   <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
 </sst>
 </file>
@@ -462,19 +459,19 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C2">
         <v>390</v>
       </c>
       <c r="D2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -485,16 +482,16 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C3">
         <v>80</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -531,13 +528,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C5">
         <v>67</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -554,13 +551,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <v>14</v>
       </c>
       <c r="D6">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -569,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -577,13 +574,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -600,13 +597,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -623,13 +620,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Филиал</t>
   </si>
@@ -64,10 +64,13 @@
     <t>100,00%</t>
   </si>
   <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>99,30%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
 </sst>
 </file>
@@ -459,19 +462,19 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D2">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -482,10 +485,10 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>64</v>
@@ -494,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -505,19 +508,19 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C4">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D4">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -528,13 +531,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -551,22 +554,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -580,10 +583,10 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -597,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -620,13 +623,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Филиал</t>
   </si>
@@ -64,10 +64,7 @@
     <t>100,00%</t>
   </si>
   <si>
-    <t>99,30%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>99,37%</t>
   </si>
   <si>
     <t>98,84%</t>
@@ -462,19 +459,19 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>481</v>
+        <v>255</v>
       </c>
       <c r="C2">
-        <v>382</v>
+        <v>159</v>
       </c>
       <c r="D2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -485,16 +482,16 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C3">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -508,16 +505,16 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C4">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -531,19 +528,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -554,22 +551,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -577,13 +574,13 @@
         <v>12</v>
       </c>
       <c r="B7">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
         <v>38</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>31</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -600,13 +597,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -623,13 +620,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>0</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -43,12 +43,12 @@
     <t>Саратов Восток</t>
   </si>
   <si>
+    <t>Саратов Запад</t>
+  </si>
+  <si>
     <t>Пенза</t>
   </si>
   <si>
-    <t>Саратов Запад</t>
-  </si>
-  <si>
     <t>Самара Запад</t>
   </si>
   <si>
@@ -64,10 +64,10 @@
     <t>100,00%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
   </si>
 </sst>
 </file>
@@ -459,19 +459,19 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>255</v>
+        <v>165</v>
       </c>
       <c r="C2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="D2">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -482,19 +482,19 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C3">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -505,19 +505,19 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C4">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -528,19 +528,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C5">
+        <v>47</v>
+      </c>
+      <c r="D5">
         <v>34</v>
       </c>
-      <c r="D5">
-        <v>62</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -551,16 +551,16 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -574,13 +574,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -597,13 +597,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -620,13 +620,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -46,12 +46,12 @@
     <t>Саратов Запад</t>
   </si>
   <si>
+    <t>Самара Запад</t>
+  </si>
+  <si>
     <t>Пенза</t>
   </si>
   <si>
-    <t>Самара Запад</t>
-  </si>
-  <si>
     <t>Тольятти</t>
   </si>
   <si>
@@ -64,10 +64,10 @@
     <t>100,00%</t>
   </si>
   <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
 </sst>
 </file>
@@ -459,13 +459,13 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C2">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>22</v>
@@ -482,19 +482,19 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -505,19 +505,19 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -528,22 +528,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -551,22 +551,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -574,19 +574,19 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
         <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -597,13 +597,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -620,13 +620,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>0</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -43,12 +43,12 @@
     <t>Саратов Восток</t>
   </si>
   <si>
+    <t>Самара Запад</t>
+  </si>
+  <si>
     <t>Саратов Запад</t>
   </si>
   <si>
-    <t>Самара Запад</t>
-  </si>
-  <si>
     <t>Пенза</t>
   </si>
   <si>
@@ -64,10 +64,10 @@
     <t>100,00%</t>
   </si>
   <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
 </sst>
 </file>
@@ -459,19 +459,19 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C2">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -482,22 +482,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -505,22 +505,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -528,16 +528,16 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -551,16 +551,16 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -574,19 +574,19 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>34</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>37</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -597,7 +597,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -606,7 +606,7 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Филиал</t>
   </si>
@@ -37,37 +37,10 @@
     <t>SLA</t>
   </si>
   <si>
-    <t>Пятигорск</t>
-  </si>
-  <si>
-    <t>Саратов Восток</t>
-  </si>
-  <si>
-    <t>Самара Запад</t>
-  </si>
-  <si>
-    <t>Саратов Запад</t>
-  </si>
-  <si>
     <t>Пенза</t>
   </si>
   <si>
-    <t>Тольятти</t>
-  </si>
-  <si>
-    <t>Владикавказ</t>
-  </si>
-  <si>
-    <t>Волгоград Восток</t>
-  </si>
-  <si>
-    <t>100,00%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>99,52%</t>
   </si>
 </sst>
 </file>
@@ -425,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,183 +432,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3">
-        <v>105</v>
-      </c>
-      <c r="C3">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>91</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>89</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>69</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>79</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>63</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>58</v>
-      </c>
-      <c r="C6">
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>34</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Филиал</t>
   </si>
@@ -37,7 +37,37 @@
     <t>SLA</t>
   </si>
   <si>
+    <t>Пятигорск</t>
+  </si>
+  <si>
+    <t>Самара Запад</t>
+  </si>
+  <si>
+    <t>Саратов Восток</t>
+  </si>
+  <si>
+    <t>Саратов Запад</t>
+  </si>
+  <si>
     <t>Пенза</t>
+  </si>
+  <si>
+    <t>Тольятти</t>
+  </si>
+  <si>
+    <t>Владикавказ</t>
+  </si>
+  <si>
+    <t>Волгоград Восток</t>
+  </si>
+  <si>
+    <t>100,00%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
   </si>
   <si>
     <t>99,52%</t>
@@ -398,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,22 +462,183 @@
         <v>7</v>
       </c>
       <c r="B2">
+        <v>113</v>
+      </c>
+      <c r="C2">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>78</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>82</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>83</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>56</v>
       </c>
-      <c r="C2">
+      <c r="C6">
         <v>19</v>
       </c>
-      <c r="D2">
+      <c r="D6">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="E6">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Филиал</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>Просрочено</t>
+  </si>
+  <si>
+    <t>Решено Евроком</t>
+  </si>
+  <si>
+    <t>Возвращено Евроком</t>
   </si>
   <si>
     <t>SLA</t>
@@ -428,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,10 +462,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>113</v>
@@ -474,15 +486,21 @@
         <v>22</v>
       </c>
       <c r="F2">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>816</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>98</v>
@@ -497,15 +515,21 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>228</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>95</v>
@@ -522,13 +546,19 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4">
+        <v>511</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>83</v>
@@ -543,15 +573,21 @@
         <v>5</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>540</v>
+      </c>
+      <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>56</v>
@@ -568,13 +604,19 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6">
+        <v>280</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>38</v>
@@ -591,13 +633,19 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7">
+        <v>210</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>13</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -612,15 +660,21 @@
         <v>1</v>
       </c>
       <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>55</v>
+      </c>
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -637,8 +691,14 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
-        <v>15</v>
+      <c r="G9">
+        <v>149</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -34,10 +34,10 @@
     <t>Просрочено</t>
   </si>
   <si>
-    <t>Решено Евроком</t>
-  </si>
-  <si>
-    <t>Возвращено Евроком</t>
+    <t>Решено</t>
+  </si>
+  <si>
+    <t>Возвращено</t>
   </si>
   <si>
     <t>SLA</t>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Филиал</t>
   </si>
@@ -70,13 +70,10 @@
     <t>100,00%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
 </sst>
 </file>
@@ -474,22 +471,22 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C2">
         <v>26</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E2">
         <v>22</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -503,28 +500,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3">
         <v>15</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -532,28 +529,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="H4">
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -561,22 +558,22 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="H5">
         <v>17</v>
@@ -590,13 +587,13 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -605,13 +602,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -634,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H7">
         <v>9</v>
@@ -648,22 +645,22 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -677,22 +674,22 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H9">
         <v>0</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -489,7 +489,7 @@
         <v>827</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -489,7 +489,7 @@
         <v>827</v>
       </c>
       <c r="H2">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -46,10 +46,10 @@
     <t>Пятигорск</t>
   </si>
   <si>
+    <t>Саратов Восток</t>
+  </si>
+  <si>
     <t>Самара Запад</t>
-  </si>
-  <si>
-    <t>Саратов Восток</t>
   </si>
   <si>
     <t>Саратов Запад</t>
@@ -471,13 +471,13 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2">
         <v>26</v>
       </c>
       <c r="D2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>22</v>
@@ -486,7 +486,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -500,28 +500,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>232</v>
+        <v>519</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,28 +529,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>232</v>
+      </c>
+      <c r="H4">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>87</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>517</v>
-      </c>
-      <c r="H4">
-        <v>20</v>
-      </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,13 +558,13 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -587,13 +587,13 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -674,13 +674,13 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H9">
         <v>0</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -507,7 +507,7 @@
         <v>42</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -507,7 +507,7 @@
         <v>38</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G2" t="n">
         <v>109</v>
@@ -540,7 +540,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
         <v>47</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>115</v>
@@ -606,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>50</v>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>112</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>38</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>12</v>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>22</v>

--- a/Сводный_отчет_по_филиалам.xlsx
+++ b/Сводный_отчет_по_филиалам.xlsx
@@ -507,7 +507,7 @@
         <v>38</v>
       </c>
       <c r="F2" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
         <v>109</v>
@@ -540,7 +540,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
         <v>47</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
         <v>115</v>
@@ -606,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>50</v>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
         <v>112</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
         <v>38</v>
